--- a/doc/SanChi_Viet.xlsx
+++ b/doc/SanChi_Viet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\e246\TayDictionary\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A96006-44E0-4DD5-B86D-A39DB6FFFE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BDB67-34DD-4DD4-9A62-9871CFA05EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F565CEA9-3794-43E9-947F-8B881F26072C}"/>
   </bookViews>
@@ -1225,7 +1225,7 @@
     <t>Chu lẻo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiếng Sán Chỉ </t>
+    <t>Tiếng Sán chỉ</t>
   </si>
 </sst>
 </file>
